--- a/Matrix resulst.xlsx
+++ b/Matrix resulst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\OneDrive\Documents\Slovenija\Kemijski Institut\Code\Image Alignment\LUMICKS_image_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4987D6CA-D4F7-42D8-BFF9-9939899CA723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3D4B6-7308-417A-864B-EECF707F14B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B30B8E75-9D0C-40B1-88F6-E17F8DA1D242}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>B dataset</t>
   </si>
@@ -55,18 +55,27 @@
   <si>
     <t>stdev as %</t>
   </si>
+  <si>
+    <t>RMSD=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,7 +101,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,14 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86C7A6D7-4FC5-4A8D-A570-1E908B9CB98A}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,90 +517,122 @@
         <v>658.61183862461496</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>5.8502403935987797</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.97872261437372698</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>1.0810480867971299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <f>AVERAGE(A2,E2,I2)</f>
         <v>1.0586289000106099</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" ref="B7:C7" si="0">AVERAGE(B2,F2,J2)</f>
+      <c r="B8" s="1">
+        <f t="shared" ref="B8:C8" si="0">AVERAGE(B2,F2,J2)</f>
         <v>2.1889866006852467E-2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>82.696249315630169</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f>STDEV(A2,E2,I2)</f>
         <v>1.2429836381193764E-3</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:G7" si="1">STDEV(B2,F2,J2)</f>
+      <c r="F8">
+        <f t="shared" ref="F8:G8" si="1">STDEV(B2,F2,J2)</f>
         <v>1.2546217297975453E-3</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>0.87191181872385104</v>
       </c>
-      <c r="I7" s="2">
-        <f>100*E7/A7</f>
+      <c r="I8">
+        <f>100*E8/A8</f>
         <v>0.11741448189322233</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:K7" si="2">100*F7/B7</f>
+      <c r="J8">
+        <f t="shared" ref="J8:K8" si="2">100*F8/B8</f>
         <v>5.7315185456356605</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8">
         <f t="shared" si="2"/>
         <v>1.0543547330617007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <f>AVERAGE(A3,E3,I3)</f>
         <v>-2.1889866006852467E-2</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" ref="B8" si="3">AVERAGE(B3,F3,J3)</f>
+      <c r="B9" s="1">
+        <f t="shared" ref="B9" si="3">AVERAGE(B3,F3,J3)</f>
         <v>1.0586289000106099</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" ref="C8" si="4">AVERAGE(C3,G3,K3)</f>
+      <c r="C9" s="1">
+        <f t="shared" ref="C9" si="4">AVERAGE(C3,G3,K3)</f>
         <v>658.29192171090529</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f>STDEV(A3,E3,I3)</f>
         <v>1.2546217297975453E-3</v>
       </c>
-      <c r="F8">
-        <f t="shared" ref="F8" si="5">STDEV(B3,F3,J3)</f>
+      <c r="F9">
+        <f t="shared" ref="F9" si="5">STDEV(B3,F3,J3)</f>
         <v>1.2429836381193764E-3</v>
       </c>
-      <c r="G8">
-        <f t="shared" ref="G8" si="6">STDEV(C3,G3,K3)</f>
+      <c r="G9">
+        <f t="shared" ref="G9" si="6">STDEV(C3,G3,K3)</f>
         <v>0.3375870253049123</v>
       </c>
-      <c r="I8" s="2">
-        <f>100*E8/A8</f>
+      <c r="I9">
+        <f>100*E9/A9</f>
         <v>-5.7315185456356605</v>
       </c>
-      <c r="J8" s="2">
-        <f t="shared" ref="J8" si="7">100*F8/B8</f>
+      <c r="J9">
+        <f t="shared" ref="J9" si="7">100*F9/B9</f>
         <v>0.11741448189322233</v>
       </c>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8" si="8">100*G8/C8</f>
+      <c r="K9">
+        <f t="shared" ref="K9" si="8">100*G9/C9</f>
         <v>5.1282267664400506E-2</v>
       </c>
     </row>

--- a/Matrix resulst.xlsx
+++ b/Matrix resulst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\OneDrive\Documents\Slovenija\Kemijski Institut\Code\Image Alignment\LUMICKS_image_alignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3D4B6-7308-417A-864B-EECF707F14B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F1764A-4412-46F6-B7A2-E8F8ADF0CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B30B8E75-9D0C-40B1-88F6-E17F8DA1D242}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
